--- a/엑셀/함수_If_과정수료.xlsx
+++ b/엑셀/함수_If_과정수료.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019합본호개정판\Data\3장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A176DEA-98F3-4256-9978-286A8AAE7676}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98AB0ED-D6DE-4979-9B64-8191D8ECED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1860" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="명단" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>최성수</t>
   </si>
@@ -175,6 +181,10 @@
   </si>
   <si>
     <t>교육점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(조건, 참일 때 결과, 거짓일때 결과)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +523,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -525,7 +535,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -567,16 +577,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -881,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,7 +906,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -910,7 +920,7 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
@@ -919,7 +929,7 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -951,7 +961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -977,10 +987,19 @@
         <f>COUNTA(C4:G4)</f>
         <v>5</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="str">
+        <f>IF(H4&gt;=4, "수료", "미수료")</f>
+        <v>수료</v>
+      </c>
+      <c r="J4" s="5">
+        <f>IF(I4="수료", 2, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1002,10 +1021,16 @@
         <f t="shared" ref="H5:H23" si="0">COUNTA(C5:G5)</f>
         <v>3</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="2" t="str">
+        <f t="shared" ref="I5:I23" si="1">IF(H5&gt;=4, "수료", "미수료")</f>
+        <v>미수료</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ref="J5:J23" si="2">IF(I5="수료", 2, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1031,10 +1056,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1054,10 +1085,16 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>미수료</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1083,10 +1120,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1112,10 +1155,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1139,10 +1188,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1168,10 +1223,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1197,10 +1258,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1222,10 +1289,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>미수료</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1251,10 +1324,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1280,10 +1359,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1309,8 +1394,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="5"/>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1334,8 +1425,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="5"/>
+      <c r="I17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>미수료</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -1363,8 +1460,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -1392,8 +1495,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="5"/>
+      <c r="I19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1421,8 +1530,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="5"/>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1446,8 +1561,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>미수료</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1475,8 +1596,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="5"/>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
@@ -1502,11 +1629,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="5"/>
+      <c r="I23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>수료</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B4:G22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G22">
     <sortCondition ref="B4"/>
   </sortState>
   <mergeCells count="2">
